--- a/Data/Sampling Inputs/Allometry/Allometric Models.xlsx
+++ b/Data/Sampling Inputs/Allometry/Allometric Models.xlsx
@@ -5,23 +5,30 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Data\Development\Projects\PhD GeoInformatics\Data\GEF Sampling\Final Sampling March 2019\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Data\Development\Projects\GEF-5 SLM\Data\Sampling Inputs\Allometry\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="13335" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="13332" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Allometric Models" sheetId="1" r:id="rId1"/>
     <sheet name="Wet Dry Ratios" sheetId="2" r:id="rId2"/>
     <sheet name="Surrogates" sheetId="3" r:id="rId3"/>
+    <sheet name="CB Surrogates" sheetId="4" r:id="rId4"/>
   </sheets>
+  <externalReferences>
+    <externalReference r:id="rId5"/>
+  </externalReferences>
+  <definedNames>
+    <definedName name="rng_Expenses20">#REF!</definedName>
+  </definedNames>
   <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="644" uniqueCount="217">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1247" uniqueCount="475">
   <si>
     <t>Species</t>
   </si>
@@ -672,13 +679,787 @@
   </si>
   <si>
     <t>My addition - bit of a hack to try and reduce wd ratio for PV11</t>
+  </si>
+  <si>
+    <t>Full name</t>
+  </si>
+  <si>
+    <t>Final name in data</t>
+  </si>
+  <si>
+    <t>Max height</t>
+  </si>
+  <si>
+    <t>Family name</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Guild </t>
+  </si>
+  <si>
+    <t>Growth form</t>
+  </si>
+  <si>
+    <t>Genus/Growth form EQN Equavalent</t>
+  </si>
+  <si>
+    <t>Family/Growth form EQN Equavalent</t>
+  </si>
+  <si>
+    <t>Growth form EQN Equavalent</t>
+  </si>
+  <si>
+    <t>changed to align with vyver surrogates</t>
+  </si>
+  <si>
+    <t>Asparagus africanus</t>
+  </si>
+  <si>
+    <t>A.africanus</t>
+  </si>
+  <si>
+    <t>Asparagaceae</t>
+  </si>
+  <si>
+    <t>Shrub</t>
+  </si>
+  <si>
+    <t>A.capensis</t>
+  </si>
+  <si>
+    <t>1m</t>
+  </si>
+  <si>
+    <t>Aloe ferox</t>
+  </si>
+  <si>
+    <t>A.ferox</t>
+  </si>
+  <si>
+    <t>2-5m</t>
+  </si>
+  <si>
+    <t>Asphodelaceae</t>
+  </si>
+  <si>
+    <t>Succulent tree</t>
+  </si>
+  <si>
+    <t>Aloe pluridens</t>
+  </si>
+  <si>
+    <t>A.pluridens</t>
+  </si>
+  <si>
+    <t>Asparagus refractus</t>
+  </si>
+  <si>
+    <t>A.refractus</t>
+  </si>
+  <si>
+    <t>Asparagus racemosus</t>
+  </si>
+  <si>
+    <t>A.racemosus</t>
+  </si>
+  <si>
+    <t>Asparagus scandens</t>
+  </si>
+  <si>
+    <t>A.scandens</t>
+  </si>
+  <si>
+    <t>Atriplex semibaccata</t>
+  </si>
+  <si>
+    <t>A.semibaccata</t>
+  </si>
+  <si>
+    <t>Amaranthaceae</t>
+  </si>
+  <si>
+    <t>none</t>
+  </si>
+  <si>
+    <t>aloe arborescens not sure without flowers</t>
+  </si>
+  <si>
+    <t>A.speciosa</t>
+  </si>
+  <si>
+    <t>3-6m</t>
+  </si>
+  <si>
+    <t>A.striatus</t>
+  </si>
+  <si>
+    <t>0.6m</t>
+  </si>
+  <si>
+    <t>A.tetracantha</t>
+  </si>
+  <si>
+    <t>Aloe sp1</t>
+  </si>
+  <si>
+    <t>Succulent shrub</t>
+  </si>
+  <si>
+    <t>Anthospermum sp</t>
+  </si>
+  <si>
+    <t>Anthospermum sp1</t>
+  </si>
+  <si>
+    <t>Rubiaceae</t>
+  </si>
+  <si>
+    <t>Small shrub</t>
+  </si>
+  <si>
+    <t>Asparagus sp1</t>
+  </si>
+  <si>
+    <t>B.oleoides</t>
+  </si>
+  <si>
+    <t>4m</t>
+  </si>
+  <si>
+    <t>Brassicaceae</t>
+  </si>
+  <si>
+    <t>Tree</t>
+  </si>
+  <si>
+    <t>Buddleja saligna</t>
+  </si>
+  <si>
+    <t>B.saligna</t>
+  </si>
+  <si>
+    <t>Scrophulariaceae</t>
+  </si>
+  <si>
+    <t>Baarbossie</t>
+  </si>
+  <si>
+    <t>Unknown</t>
+  </si>
+  <si>
+    <t>herb</t>
+  </si>
+  <si>
+    <t>Bowstring hamp sp</t>
+  </si>
+  <si>
+    <t>C.aphylla</t>
+  </si>
+  <si>
+    <t>Lobeliaceae</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Shrub </t>
+  </si>
+  <si>
+    <t>C.capensis</t>
+  </si>
+  <si>
+    <t>Menispermaceae</t>
+  </si>
+  <si>
+    <t>c.f. Lobelia linearis</t>
+  </si>
+  <si>
+    <t>Campanulaceae</t>
+  </si>
+  <si>
+    <t>Small Shrub</t>
+  </si>
+  <si>
+    <t>C.haematocarpa</t>
+  </si>
+  <si>
+    <t>Apocynaceae</t>
+  </si>
+  <si>
+    <t>Crasulla muscosa</t>
+  </si>
+  <si>
+    <t>C.muscosa</t>
+  </si>
+  <si>
+    <t>Crassulaceae</t>
+  </si>
+  <si>
+    <t>Cotyledon orbiculata</t>
+  </si>
+  <si>
+    <t>C.orbiculata</t>
+  </si>
+  <si>
+    <t>C.ovata</t>
+  </si>
+  <si>
+    <t>C.perforata</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Crassula rupestris </t>
+  </si>
+  <si>
+    <t xml:space="preserve">C.rupestris </t>
+  </si>
+  <si>
+    <t>Cussonia spicata</t>
+  </si>
+  <si>
+    <t>C.spicata</t>
+  </si>
+  <si>
+    <t>Araliaceae</t>
+  </si>
+  <si>
+    <t>Cotyledon woodii</t>
+  </si>
+  <si>
+    <t>C.woodii</t>
+  </si>
+  <si>
+    <t>Thecium junceum</t>
+  </si>
+  <si>
+    <t>Cadaba hand broom</t>
+  </si>
+  <si>
+    <t>Grass</t>
+  </si>
+  <si>
+    <t>Carpobrotus sp1</t>
+  </si>
+  <si>
+    <t>Aizoaceae</t>
+  </si>
+  <si>
+    <t>Succulent creeper</t>
+  </si>
+  <si>
+    <t>Chrysocoma sp1</t>
+  </si>
+  <si>
+    <t>Asteraceae</t>
+  </si>
+  <si>
+    <t>Herb</t>
+  </si>
+  <si>
+    <t>Cotyledon sp1</t>
+  </si>
+  <si>
+    <t>Crassula sp</t>
+  </si>
+  <si>
+    <t>Crassula sp1</t>
+  </si>
+  <si>
+    <t>Crassula sp2</t>
+  </si>
+  <si>
+    <t>Crassula sp3</t>
+  </si>
+  <si>
+    <t>Dodonaea angustifolia</t>
+  </si>
+  <si>
+    <t>D.angustifolia</t>
+  </si>
+  <si>
+    <t>Sapindaceae</t>
+  </si>
+  <si>
+    <t>Shrub/tree</t>
+  </si>
+  <si>
+    <t>Diospyros scabrida</t>
+  </si>
+  <si>
+    <t>D.scabrida</t>
+  </si>
+  <si>
+    <t>Ebenaceae</t>
+  </si>
+  <si>
+    <t>Eriocephalus africanus</t>
+  </si>
+  <si>
+    <t>E.africanus</t>
+  </si>
+  <si>
+    <t>Elaeodendron capense</t>
+  </si>
+  <si>
+    <t>E.capense</t>
+  </si>
+  <si>
+    <t>4-5m</t>
+  </si>
+  <si>
+    <t>Celastraceae</t>
+  </si>
+  <si>
+    <t>Euphorbia heptagona</t>
+  </si>
+  <si>
+    <t>E.heptagona</t>
+  </si>
+  <si>
+    <t>Euphorbiaceae</t>
+  </si>
+  <si>
+    <t>E.mauritanica</t>
+  </si>
+  <si>
+    <t>Elytropappus rhinocerotis</t>
+  </si>
+  <si>
+    <t>E.rhinocerotis</t>
+  </si>
+  <si>
+    <t>E.triangularis</t>
+  </si>
+  <si>
+    <t>E.undulata</t>
+  </si>
+  <si>
+    <t>Euclea crispa</t>
+  </si>
+  <si>
+    <t>E.crispa</t>
+  </si>
+  <si>
+    <t>Pelargonium</t>
+  </si>
+  <si>
+    <t>Euphorbia creeping sp</t>
+  </si>
+  <si>
+    <t>Geraniaceae</t>
+  </si>
+  <si>
+    <t>Creeper</t>
+  </si>
+  <si>
+    <t>Fockea edulis</t>
+  </si>
+  <si>
+    <t>F.edulis</t>
+  </si>
+  <si>
+    <t>Bulb</t>
+  </si>
+  <si>
+    <t>Fake muaritanica</t>
+  </si>
+  <si>
+    <t>G.capitata</t>
+  </si>
+  <si>
+    <t>Shrub/small tree</t>
+  </si>
+  <si>
+    <t>G.nemorosa</t>
+  </si>
+  <si>
+    <t>Galenia pubescens</t>
+  </si>
+  <si>
+    <t>G.pubescens</t>
+  </si>
+  <si>
+    <t>G.robusta</t>
+  </si>
+  <si>
+    <t>Malvaceae</t>
+  </si>
+  <si>
+    <t>Helichrysum dregeanum</t>
+  </si>
+  <si>
+    <t>H.dregeanum</t>
+  </si>
+  <si>
+    <t>Hermannia flammea</t>
+  </si>
+  <si>
+    <t>H.flammea</t>
+  </si>
+  <si>
+    <t>Hermannia gracilis</t>
+  </si>
+  <si>
+    <t>H.gracilis</t>
+  </si>
+  <si>
+    <t>Hermannia holosericea</t>
+  </si>
+  <si>
+    <t>H.holosericea</t>
+  </si>
+  <si>
+    <t>Hermannia pulverata</t>
+  </si>
+  <si>
+    <t>H.pulverata</t>
+  </si>
+  <si>
+    <t>Hermannia sp</t>
+  </si>
+  <si>
+    <t>Hermania sp1</t>
+  </si>
+  <si>
+    <t>Isoglossa sylvatica</t>
+  </si>
+  <si>
+    <t>I.sylvatica</t>
+  </si>
+  <si>
+    <t>Acanthaceae</t>
+  </si>
+  <si>
+    <t>K.rotundifolia</t>
+  </si>
+  <si>
+    <t>L.aethiopicum</t>
+  </si>
+  <si>
+    <t>Molluginaceae</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Small Shrub </t>
+  </si>
+  <si>
+    <t>lycium afrum</t>
+  </si>
+  <si>
+    <t>L.afrum</t>
+  </si>
+  <si>
+    <t>Solanaceae</t>
+  </si>
+  <si>
+    <t>Lycium americanum</t>
+  </si>
+  <si>
+    <t>L.americanum</t>
+  </si>
+  <si>
+    <t>Lycium horridum</t>
+  </si>
+  <si>
+    <t>L.horridum</t>
+  </si>
+  <si>
+    <t>Lycium ferossiumum</t>
+  </si>
+  <si>
+    <t>L.ferossiumum</t>
+  </si>
+  <si>
+    <t>Leonotis ocymifolia</t>
+  </si>
+  <si>
+    <t>L.ocymifolia</t>
+  </si>
+  <si>
+    <t>Lamiaceae</t>
+  </si>
+  <si>
+    <t>Limeum hairy shrub sp</t>
+  </si>
+  <si>
+    <t>Limeum hairy shrub</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lycium c.f. schizocalyx need flowers </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lycium c.f. schizocalyx </t>
+  </si>
+  <si>
+    <t>Lycium horidum</t>
+  </si>
+  <si>
+    <t>Lycium sp1</t>
+  </si>
+  <si>
+    <t>Lycium sp2</t>
+  </si>
+  <si>
+    <t>Lycium sp3</t>
+  </si>
+  <si>
+    <t>Maytenus undata</t>
+  </si>
+  <si>
+    <t>M.undata</t>
+  </si>
+  <si>
+    <t>Nymania capensis</t>
+  </si>
+  <si>
+    <t>N.capensis</t>
+  </si>
+  <si>
+    <t>2-3m</t>
+  </si>
+  <si>
+    <t>Meliaceae</t>
+  </si>
+  <si>
+    <t>Oak silver spp1</t>
+  </si>
+  <si>
+    <t>Oak silver sp1</t>
+  </si>
+  <si>
+    <t>tree</t>
+  </si>
+  <si>
+    <t>Olea europaea subsp. cuspidata</t>
+  </si>
+  <si>
+    <t>O.europaea subsp. cuspidata</t>
+  </si>
+  <si>
+    <t>Oleaceae</t>
+  </si>
+  <si>
+    <t>Osyris lanceolata c.f.</t>
+  </si>
+  <si>
+    <t>O.lanceolata c.f.</t>
+  </si>
+  <si>
+    <t>Santalaceae</t>
+  </si>
+  <si>
+    <t>Opuntia ficus-indica</t>
+  </si>
+  <si>
+    <t>O.ficus-indica</t>
+  </si>
+  <si>
+    <t>Cactaceae</t>
+  </si>
+  <si>
+    <t>P.afra</t>
+  </si>
+  <si>
+    <t>Didiereaceae</t>
+  </si>
+  <si>
+    <t>Succluent tree</t>
+  </si>
+  <si>
+    <t>P.incana</t>
+  </si>
+  <si>
+    <t>P.capensis</t>
+  </si>
+  <si>
+    <t>Polygala leptophylla</t>
+  </si>
+  <si>
+    <t>P.leptophylla</t>
+  </si>
+  <si>
+    <t>Polygalaceae</t>
+  </si>
+  <si>
+    <t>Polygala myrtifolia</t>
+  </si>
+  <si>
+    <t>P.myrtifolia</t>
+  </si>
+  <si>
+    <t>Pelargonium peltatum</t>
+  </si>
+  <si>
+    <t>P.peltatum</t>
+  </si>
+  <si>
+    <t>P.pyracantha</t>
+  </si>
+  <si>
+    <t>Passerina rubra</t>
+  </si>
+  <si>
+    <t>P.rubra</t>
+  </si>
+  <si>
+    <t>Thymelaeaceae</t>
+  </si>
+  <si>
+    <t>Pelargonium tetragonum</t>
+  </si>
+  <si>
+    <t>P.tetragonum</t>
+  </si>
+  <si>
+    <t>Pollichia sp1</t>
+  </si>
+  <si>
+    <t>Caryophyllaceae</t>
+  </si>
+  <si>
+    <t>Polygala asbestina c.f.</t>
+  </si>
+  <si>
+    <t>P.asbestina c.f.</t>
+  </si>
+  <si>
+    <t>Pteronia sp</t>
+  </si>
+  <si>
+    <t>Pteronia sp1</t>
+  </si>
+  <si>
+    <t>R.digitata</t>
+  </si>
+  <si>
+    <t>Vitaceae</t>
+  </si>
+  <si>
+    <t>R.obovatum</t>
+  </si>
+  <si>
+    <t>Bignoniaceae</t>
+  </si>
+  <si>
+    <t>Ruschia sp</t>
+  </si>
+  <si>
+    <t>Smelophyllum capense</t>
+  </si>
+  <si>
+    <t>S.capense</t>
+  </si>
+  <si>
+    <t>3-4m</t>
+  </si>
+  <si>
+    <t>Searsia dentata</t>
+  </si>
+  <si>
+    <t>S.dentata</t>
+  </si>
+  <si>
+    <t>Anacardiaceae</t>
+  </si>
+  <si>
+    <t>Searsia fastigiata</t>
+  </si>
+  <si>
+    <t>S.fastigiata</t>
+  </si>
+  <si>
+    <t>Searsia glauca</t>
+  </si>
+  <si>
+    <t>S.glauca</t>
+  </si>
+  <si>
+    <t>Schotia latifolia</t>
+  </si>
+  <si>
+    <t>S.latifolia</t>
+  </si>
+  <si>
+    <t>Fabaceae</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Searsia longispina </t>
+  </si>
+  <si>
+    <t xml:space="preserve">S.longispina </t>
+  </si>
+  <si>
+    <t>Searsia lucida</t>
+  </si>
+  <si>
+    <t>S.lucida</t>
+  </si>
+  <si>
+    <t>Searsia refracta</t>
+  </si>
+  <si>
+    <t>S.refracta</t>
+  </si>
+  <si>
+    <t>Solanum tomentosum</t>
+  </si>
+  <si>
+    <t>S.tomentosum</t>
+  </si>
+  <si>
+    <t>Searsia undulata</t>
+  </si>
+  <si>
+    <t>S.undulata</t>
+  </si>
+  <si>
+    <t>Tarchonanthus camphoratus</t>
+  </si>
+  <si>
+    <t>T.camphoratus</t>
+  </si>
+  <si>
+    <t>Tephrosia spp</t>
+  </si>
+  <si>
+    <t>Tephrosia sp1</t>
+  </si>
+  <si>
+    <t>Jathropha capensis</t>
+  </si>
+  <si>
+    <t>Unknown sp1</t>
+  </si>
+  <si>
+    <t>Unknown sp2</t>
+  </si>
+  <si>
+    <t>Unknown sp3</t>
+  </si>
+  <si>
+    <t>Unknown sp4</t>
+  </si>
+  <si>
+    <t>Vachellia karoo</t>
+  </si>
+  <si>
+    <t>V.karoo</t>
+  </si>
+  <si>
+    <t>Ysterhout sp</t>
+  </si>
+  <si>
+    <t>Zygophyllum morgsana</t>
+  </si>
+  <si>
+    <t>Z.morgsana</t>
+  </si>
+  <si>
+    <t>Zygophyllaceae</t>
+  </si>
+  <si>
+    <t>Zygophyllum sp</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="18" x14ac:knownFonts="1">
+  <fonts count="22" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -813,8 +1594,37 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="33">
+  <fills count="40">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -994,6 +1804,48 @@
         <bgColor indexed="65"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="10">
     <border>
@@ -1155,10 +2007,25 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="18" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="19" fillId="34" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="19" fillId="35" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="18" fillId="35" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="19" fillId="36" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="19" fillId="37" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="19" fillId="38" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="19" fillId="39" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="21" fillId="35" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1206,74 +2073,6 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -1283,6 +2082,27 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="Master spp list"/>
+      <sheetName val="Names changed"/>
+      <sheetName val="Consolidated data"/>
+      <sheetName val="Marius spp list"/>
+      <sheetName val="Sheet1"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0"/>
+      <sheetData sheetId="1"/>
+      <sheetData sheetId="2"/>
+      <sheetData sheetId="3"/>
+      <sheetData sheetId="4"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1554,14 +2374,14 @@
       <selection activeCell="N1" sqref="N1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="24" customWidth="1"/>
-    <col min="2" max="2" width="24.5703125" customWidth="1"/>
-    <col min="3" max="3" width="19.7109375" customWidth="1"/>
+    <col min="2" max="2" width="24.5546875" customWidth="1"/>
+    <col min="3" max="3" width="19.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1608,7 +2428,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>11</v>
       </c>
@@ -1652,7 +2472,7 @@
         <v>1.08</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>11</v>
       </c>
@@ -1696,7 +2516,7 @@
         <v>1.1200000000000001</v>
       </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>14</v>
       </c>
@@ -1740,7 +2560,7 @@
         <v>1.07</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>15</v>
       </c>
@@ -1784,7 +2604,7 @@
         <v>1.02</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>16</v>
       </c>
@@ -1831,7 +2651,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>17</v>
       </c>
@@ -1875,7 +2695,7 @@
         <v>1.01</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>18</v>
       </c>
@@ -1919,7 +2739,7 @@
         <v>1.01</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>19</v>
       </c>
@@ -1963,7 +2783,7 @@
         <v>1.02</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>20</v>
       </c>
@@ -2007,7 +2827,7 @@
         <v>1.01</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>21</v>
       </c>
@@ -2051,7 +2871,7 @@
         <v>1.01</v>
       </c>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>22</v>
       </c>
@@ -2095,7 +2915,7 @@
         <v>1.05</v>
       </c>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>22</v>
       </c>
@@ -2139,7 +2959,7 @@
         <v>1.03</v>
       </c>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>22</v>
       </c>
@@ -2186,7 +3006,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>22</v>
       </c>
@@ -2230,7 +3050,7 @@
         <v>1.03</v>
       </c>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>24</v>
       </c>
@@ -2274,7 +3094,7 @@
         <v>1.02</v>
       </c>
     </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>26</v>
       </c>
@@ -2318,7 +3138,7 @@
         <v>1.01</v>
       </c>
     </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>27</v>
       </c>
@@ -2362,7 +3182,7 @@
         <v>1.06</v>
       </c>
     </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>28</v>
       </c>
@@ -2406,7 +3226,7 @@
         <v>1.06</v>
       </c>
     </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>28</v>
       </c>
@@ -2450,7 +3270,7 @@
         <v>1.01</v>
       </c>
     </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>28</v>
       </c>
@@ -2494,7 +3314,7 @@
         <v>1.04</v>
       </c>
     </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>30</v>
       </c>
@@ -2538,7 +3358,7 @@
         <v>1.01</v>
       </c>
     </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>31</v>
       </c>
@@ -2582,7 +3402,7 @@
         <v>1.02</v>
       </c>
     </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>32</v>
       </c>
@@ -2626,7 +3446,7 @@
         <v>1.03</v>
       </c>
     </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>33</v>
       </c>
@@ -2670,7 +3490,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>34</v>
       </c>
@@ -2714,7 +3534,7 @@
         <v>1.02</v>
       </c>
     </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>34</v>
       </c>
@@ -2761,7 +3581,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>35</v>
       </c>
@@ -2805,7 +3625,7 @@
         <v>1.03</v>
       </c>
     </row>
-    <row r="29" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>36</v>
       </c>
@@ -2849,7 +3669,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>38</v>
       </c>
@@ -2896,7 +3716,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="31" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>39</v>
       </c>
@@ -2940,7 +3760,7 @@
         <v>1.03</v>
       </c>
     </row>
-    <row r="32" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>40</v>
       </c>
@@ -2987,7 +3807,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="33" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>41</v>
       </c>
@@ -3031,7 +3851,7 @@
         <v>1.1299999999999999</v>
       </c>
     </row>
-    <row r="34" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>42</v>
       </c>
@@ -3075,7 +3895,7 @@
         <v>1.04</v>
       </c>
     </row>
-    <row r="35" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>43</v>
       </c>
@@ -3119,7 +3939,7 @@
         <v>1.07</v>
       </c>
     </row>
-    <row r="36" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>44</v>
       </c>
@@ -3163,7 +3983,7 @@
         <v>1.03</v>
       </c>
     </row>
-    <row r="37" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>45</v>
       </c>
@@ -3207,7 +4027,7 @@
         <v>1.1000000000000001</v>
       </c>
     </row>
-    <row r="38" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>46</v>
       </c>
@@ -3251,7 +4071,7 @@
         <v>1.03</v>
       </c>
     </row>
-    <row r="39" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>48</v>
       </c>
@@ -3295,7 +4115,7 @@
         <v>1.01</v>
       </c>
     </row>
-    <row r="40" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>49</v>
       </c>
@@ -3339,7 +4159,7 @@
         <v>1.08</v>
       </c>
     </row>
-    <row r="41" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>50</v>
       </c>
@@ -3386,7 +4206,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="42" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>58</v>
       </c>
@@ -3443,15 +4263,15 @@
       <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="21.42578125" customWidth="1"/>
-    <col min="2" max="2" width="33.85546875" customWidth="1"/>
-    <col min="3" max="3" width="16.85546875" customWidth="1"/>
+    <col min="1" max="1" width="21.44140625" customWidth="1"/>
+    <col min="2" max="2" width="33.88671875" customWidth="1"/>
+    <col min="3" max="3" width="16.88671875" customWidth="1"/>
     <col min="5" max="5" width="14" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3471,7 +4291,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>11</v>
       </c>
@@ -3491,7 +4311,7 @@
         <v>7.0000000000000007E-2</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>14</v>
       </c>
@@ -3511,7 +4331,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>15</v>
       </c>
@@ -3531,7 +4351,7 @@
         <v>0.04</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>17</v>
       </c>
@@ -3551,7 +4371,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>20</v>
       </c>
@@ -3571,7 +4391,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>22</v>
       </c>
@@ -3591,7 +4411,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>22</v>
       </c>
@@ -3611,7 +4431,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>22</v>
       </c>
@@ -3631,7 +4451,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>22</v>
       </c>
@@ -3651,7 +4471,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>24</v>
       </c>
@@ -3671,7 +4491,7 @@
         <v>7.0000000000000007E-2</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>26</v>
       </c>
@@ -3691,7 +4511,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>27</v>
       </c>
@@ -3711,7 +4531,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>28</v>
       </c>
@@ -3731,7 +4551,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>30</v>
       </c>
@@ -3751,7 +4571,7 @@
         <v>0.06</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>31</v>
       </c>
@@ -3771,7 +4591,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>32</v>
       </c>
@@ -3791,7 +4611,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>32</v>
       </c>
@@ -3811,7 +4631,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>33</v>
       </c>
@@ -3831,7 +4651,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>34</v>
       </c>
@@ -3851,7 +4671,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>35</v>
       </c>
@@ -3871,7 +4691,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>36</v>
       </c>
@@ -3891,7 +4711,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>36</v>
       </c>
@@ -3911,7 +4731,7 @@
         <v>0.03</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>39</v>
       </c>
@@ -3931,7 +4751,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>40</v>
       </c>
@@ -3951,7 +4771,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>41</v>
       </c>
@@ -3971,7 +4791,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>44</v>
       </c>
@@ -3991,7 +4811,7 @@
         <v>7.0000000000000007E-2</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>48</v>
       </c>
@@ -4011,7 +4831,7 @@
         <v>0.08</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>49</v>
       </c>
@@ -4031,7 +4851,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>58</v>
       </c>
@@ -4051,7 +4871,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>50</v>
       </c>
@@ -4080,18 +4900,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I93"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A61" workbookViewId="0">
-      <selection activeCell="F82" sqref="F82"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="3" width="33.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="3" width="33.44140625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="8" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="19.28515625" customWidth="1"/>
+    <col min="6" max="6" width="19.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -4105,7 +4925,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>173</v>
       </c>
@@ -4116,7 +4936,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>174</v>
       </c>
@@ -4130,7 +4950,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>175</v>
       </c>
@@ -4144,7 +4964,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>176</v>
       </c>
@@ -4155,7 +4975,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>177</v>
       </c>
@@ -4169,7 +4989,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>178</v>
       </c>
@@ -4183,7 +5003,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>179</v>
       </c>
@@ -4197,7 +5017,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>180</v>
       </c>
@@ -4211,7 +5031,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>181</v>
       </c>
@@ -4225,7 +5045,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>182</v>
       </c>
@@ -4236,7 +5056,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>128</v>
       </c>
@@ -4247,7 +5067,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>183</v>
       </c>
@@ -4261,7 +5081,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>184</v>
       </c>
@@ -4275,7 +5095,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>185</v>
       </c>
@@ -4289,7 +5109,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>186</v>
       </c>
@@ -4303,7 +5123,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="17" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A17" s="2" t="s">
         <v>131</v>
       </c>
@@ -4320,7 +5140,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>187</v>
       </c>
@@ -4331,7 +5151,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>188</v>
       </c>
@@ -4345,7 +5165,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>189</v>
       </c>
@@ -4359,7 +5179,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>190</v>
       </c>
@@ -4373,7 +5193,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>192</v>
       </c>
@@ -4384,7 +5204,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>193</v>
       </c>
@@ -4398,7 +5218,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>194</v>
       </c>
@@ -4412,7 +5232,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>206</v>
       </c>
@@ -4426,7 +5246,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>195</v>
       </c>
@@ -4440,7 +5260,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>196</v>
       </c>
@@ -4451,7 +5271,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>197</v>
       </c>
@@ -4465,7 +5285,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>135</v>
       </c>
@@ -4479,7 +5299,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>198</v>
       </c>
@@ -4493,7 +5313,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>199</v>
       </c>
@@ -4507,7 +5327,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>200</v>
       </c>
@@ -4521,7 +5341,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>201</v>
       </c>
@@ -4535,7 +5355,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>202</v>
       </c>
@@ -4549,7 +5369,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>203</v>
       </c>
@@ -4563,7 +5383,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>191</v>
       </c>
@@ -4577,7 +5397,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>104</v>
       </c>
@@ -4588,7 +5408,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>107</v>
       </c>
@@ -4599,7 +5419,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>108</v>
       </c>
@@ -4610,7 +5430,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>109</v>
       </c>
@@ -4624,7 +5444,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>111</v>
       </c>
@@ -4638,7 +5458,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>113</v>
       </c>
@@ -4652,7 +5472,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>114</v>
       </c>
@@ -4666,7 +5486,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="44" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A44" s="2" t="s">
         <v>204</v>
       </c>
@@ -4683,7 +5503,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>115</v>
       </c>
@@ -4697,7 +5517,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>118</v>
       </c>
@@ -4711,7 +5531,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>119</v>
       </c>
@@ -4725,7 +5545,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>121</v>
       </c>
@@ -4739,7 +5559,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>122</v>
       </c>
@@ -4753,7 +5573,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>123</v>
       </c>
@@ -4767,7 +5587,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>125</v>
       </c>
@@ -4781,7 +5601,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>126</v>
       </c>
@@ -4795,7 +5615,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>127</v>
       </c>
@@ -4806,7 +5626,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>129</v>
       </c>
@@ -4820,7 +5640,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>130</v>
       </c>
@@ -4834,7 +5654,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>132</v>
       </c>
@@ -4848,7 +5668,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
         <v>133</v>
       </c>
@@ -4859,7 +5679,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
         <v>134</v>
       </c>
@@ -4873,7 +5693,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
         <v>136</v>
       </c>
@@ -4887,7 +5707,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
         <v>138</v>
       </c>
@@ -4901,7 +5721,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
         <v>140</v>
       </c>
@@ -4915,7 +5735,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
         <v>141</v>
       </c>
@@ -4929,7 +5749,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
         <v>142</v>
       </c>
@@ -4943,7 +5763,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
         <v>143</v>
       </c>
@@ -4960,7 +5780,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="65" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
         <v>144</v>
       </c>
@@ -4974,7 +5794,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="66" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
         <v>145</v>
       </c>
@@ -4988,7 +5808,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="67" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A67" s="2" t="s">
         <v>208</v>
       </c>
@@ -5014,7 +5834,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="68" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
         <v>147</v>
       </c>
@@ -5028,7 +5848,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="69" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
         <v>148</v>
       </c>
@@ -5042,7 +5862,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="70" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
         <v>149</v>
       </c>
@@ -5056,7 +5876,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="71" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
         <v>151</v>
       </c>
@@ -5070,7 +5890,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="72" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
         <v>152</v>
       </c>
@@ -5081,7 +5901,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="73" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
         <v>154</v>
       </c>
@@ -5092,7 +5912,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="74" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
         <v>155</v>
       </c>
@@ -5106,7 +5926,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="75" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
         <v>156</v>
       </c>
@@ -5120,7 +5940,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="76" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
         <v>157</v>
       </c>
@@ -5131,7 +5951,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="77" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
         <v>158</v>
       </c>
@@ -5145,7 +5965,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="78" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
         <v>160</v>
       </c>
@@ -5159,7 +5979,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="79" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
         <v>116</v>
       </c>
@@ -5173,7 +5993,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="80" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
         <v>161</v>
       </c>
@@ -5187,7 +6007,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
         <v>150</v>
       </c>
@@ -5201,7 +6021,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
         <v>162</v>
       </c>
@@ -5215,7 +6035,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
         <v>139</v>
       </c>
@@ -5229,7 +6049,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
         <v>163</v>
       </c>
@@ -5243,7 +6063,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
         <v>164</v>
       </c>
@@ -5257,7 +6077,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
         <v>167</v>
       </c>
@@ -5271,7 +6091,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
         <v>168</v>
       </c>
@@ -5285,7 +6105,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
         <v>169</v>
       </c>
@@ -5299,7 +6119,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
         <v>170</v>
       </c>
@@ -5313,7 +6133,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
         <v>171</v>
       </c>
@@ -5327,7 +6147,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="91" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
         <v>172</v>
       </c>
@@ -5338,7 +6158,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="92" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A92" s="2" t="s">
         <v>165</v>
       </c>
@@ -5352,7 +6172,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="93" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A93" s="2" t="s">
         <v>215</v>
       </c>
@@ -5371,4 +6191,2311 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:K117"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A26" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B43" sqref="B43"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="18" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="49" style="5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="34.109375" style="5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.33203125" style="5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="20.44140625" style="5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.88671875" style="5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="21.109375" style="5" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="45" style="5" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="45.33203125" style="5" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="36.44140625" style="5" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="44.88671875" style="5" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="6.88671875" style="5" bestFit="1" customWidth="1"/>
+    <col min="12" max="16384" width="8.88671875" style="5"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A1" s="3" t="s">
+        <v>217</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>218</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>219</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>220</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>221</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>222</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>223</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>224</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>225</v>
+      </c>
+      <c r="J1" s="4" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A2" s="5" t="s">
+        <v>227</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>228</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>229</v>
+      </c>
+      <c r="F2" s="5" t="s">
+        <v>230</v>
+      </c>
+      <c r="G2" s="6" t="s">
+        <v>124</v>
+      </c>
+      <c r="H2" s="6"/>
+      <c r="I2" s="6"/>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A3" s="5" t="s">
+        <v>124</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>231</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>232</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>229</v>
+      </c>
+      <c r="F3" s="5" t="s">
+        <v>230</v>
+      </c>
+      <c r="G3" s="6" t="s">
+        <v>124</v>
+      </c>
+      <c r="H3" s="6"/>
+      <c r="I3" s="6"/>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A4" s="5" t="s">
+        <v>233</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>234</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>235</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>236</v>
+      </c>
+      <c r="F4" s="5" t="s">
+        <v>237</v>
+      </c>
+      <c r="G4" s="6" t="s">
+        <v>177</v>
+      </c>
+      <c r="H4" s="6"/>
+      <c r="I4" s="6"/>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A5" s="5" t="s">
+        <v>238</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>239</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>235</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>236</v>
+      </c>
+      <c r="F5" s="5" t="s">
+        <v>237</v>
+      </c>
+      <c r="G5" s="6" t="s">
+        <v>177</v>
+      </c>
+      <c r="H5" s="7"/>
+      <c r="I5" s="7"/>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A6" s="5" t="s">
+        <v>240</v>
+      </c>
+      <c r="B6" s="8" t="s">
+        <v>241</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>229</v>
+      </c>
+      <c r="F6" s="5" t="s">
+        <v>230</v>
+      </c>
+      <c r="G6" s="6" t="s">
+        <v>124</v>
+      </c>
+      <c r="H6" s="7"/>
+      <c r="I6" s="7"/>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A7" s="5" t="s">
+        <v>242</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>243</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>236</v>
+      </c>
+      <c r="F7" s="5" t="s">
+        <v>230</v>
+      </c>
+      <c r="G7" s="6" t="s">
+        <v>124</v>
+      </c>
+      <c r="H7" s="6"/>
+      <c r="I7" s="6"/>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A8" s="5" t="s">
+        <v>244</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>245</v>
+      </c>
+      <c r="D8" s="5" t="s">
+        <v>229</v>
+      </c>
+      <c r="F8" s="5" t="s">
+        <v>230</v>
+      </c>
+      <c r="G8" s="6" t="s">
+        <v>124</v>
+      </c>
+      <c r="H8" s="6"/>
+      <c r="I8" s="6"/>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A9" s="5" t="s">
+        <v>246</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>247</v>
+      </c>
+      <c r="D9" s="5" t="s">
+        <v>248</v>
+      </c>
+      <c r="F9" s="5" t="s">
+        <v>230</v>
+      </c>
+      <c r="G9" s="9" t="s">
+        <v>249</v>
+      </c>
+      <c r="H9" s="10"/>
+      <c r="I9" s="10"/>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A10" s="5" t="s">
+        <v>250</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>251</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>252</v>
+      </c>
+      <c r="D10" s="5" t="s">
+        <v>236</v>
+      </c>
+      <c r="F10" s="5" t="s">
+        <v>237</v>
+      </c>
+      <c r="G10" s="6" t="s">
+        <v>177</v>
+      </c>
+      <c r="H10" s="6"/>
+      <c r="I10" s="6"/>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A11" s="5" t="s">
+        <v>179</v>
+      </c>
+      <c r="B11" s="5" t="s">
+        <v>253</v>
+      </c>
+      <c r="C11" s="5" t="s">
+        <v>254</v>
+      </c>
+      <c r="D11" s="5" t="s">
+        <v>229</v>
+      </c>
+      <c r="F11" s="5" t="s">
+        <v>230</v>
+      </c>
+      <c r="G11" s="6" t="s">
+        <v>124</v>
+      </c>
+      <c r="H11" s="6"/>
+      <c r="I11" s="6"/>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A12" s="5" t="s">
+        <v>181</v>
+      </c>
+      <c r="B12" s="8" t="s">
+        <v>255</v>
+      </c>
+      <c r="D12" s="5" t="s">
+        <v>229</v>
+      </c>
+      <c r="F12" s="5" t="s">
+        <v>230</v>
+      </c>
+      <c r="G12" s="6" t="s">
+        <v>181</v>
+      </c>
+      <c r="H12" s="6"/>
+      <c r="I12" s="6"/>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A13" s="5" t="s">
+        <v>256</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>256</v>
+      </c>
+      <c r="D13" s="5" t="s">
+        <v>236</v>
+      </c>
+      <c r="F13" s="5" t="s">
+        <v>257</v>
+      </c>
+      <c r="G13" s="6" t="s">
+        <v>166</v>
+      </c>
+      <c r="H13" s="6"/>
+      <c r="I13" s="6"/>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A14" s="5" t="s">
+        <v>258</v>
+      </c>
+      <c r="B14" s="5" t="s">
+        <v>259</v>
+      </c>
+      <c r="D14" s="5" t="s">
+        <v>260</v>
+      </c>
+      <c r="F14" s="5" t="s">
+        <v>261</v>
+      </c>
+      <c r="G14" s="9" t="s">
+        <v>249</v>
+      </c>
+      <c r="H14" s="10"/>
+      <c r="I14" s="10"/>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A15" s="5" t="s">
+        <v>262</v>
+      </c>
+      <c r="B15" s="5" t="s">
+        <v>262</v>
+      </c>
+      <c r="D15" s="5" t="s">
+        <v>229</v>
+      </c>
+      <c r="F15" s="5" t="s">
+        <v>230</v>
+      </c>
+      <c r="G15" s="6" t="s">
+        <v>124</v>
+      </c>
+      <c r="H15" s="6"/>
+      <c r="I15" s="6"/>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A16" s="5" t="s">
+        <v>183</v>
+      </c>
+      <c r="B16" s="5" t="s">
+        <v>263</v>
+      </c>
+      <c r="C16" s="5" t="s">
+        <v>264</v>
+      </c>
+      <c r="D16" s="5" t="s">
+        <v>265</v>
+      </c>
+      <c r="F16" s="5" t="s">
+        <v>266</v>
+      </c>
+      <c r="G16" s="9" t="s">
+        <v>183</v>
+      </c>
+      <c r="H16" s="6"/>
+      <c r="I16" s="6"/>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A17" s="5" t="s">
+        <v>267</v>
+      </c>
+      <c r="B17" s="5" t="s">
+        <v>268</v>
+      </c>
+      <c r="D17" s="5" t="s">
+        <v>269</v>
+      </c>
+      <c r="F17" s="5" t="s">
+        <v>266</v>
+      </c>
+      <c r="G17" s="6"/>
+      <c r="H17" s="6"/>
+      <c r="I17" s="6" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A18" s="5" t="s">
+        <v>270</v>
+      </c>
+      <c r="B18" s="5" t="s">
+        <v>270</v>
+      </c>
+      <c r="D18" s="5" t="s">
+        <v>271</v>
+      </c>
+      <c r="F18" s="5" t="s">
+        <v>272</v>
+      </c>
+      <c r="G18" s="9" t="s">
+        <v>249</v>
+      </c>
+      <c r="H18" s="10"/>
+      <c r="I18" s="10"/>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A19" s="11" t="s">
+        <v>273</v>
+      </c>
+      <c r="B19" s="11" t="s">
+        <v>273</v>
+      </c>
+      <c r="D19" s="5" t="s">
+        <v>271</v>
+      </c>
+      <c r="F19" s="5" t="s">
+        <v>272</v>
+      </c>
+      <c r="G19" s="9" t="s">
+        <v>249</v>
+      </c>
+      <c r="H19" s="10"/>
+      <c r="I19" s="10"/>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A20" s="5" t="s">
+        <v>185</v>
+      </c>
+      <c r="B20" s="5" t="s">
+        <v>274</v>
+      </c>
+      <c r="D20" s="5" t="s">
+        <v>275</v>
+      </c>
+      <c r="F20" s="5" t="s">
+        <v>276</v>
+      </c>
+      <c r="G20" s="6"/>
+      <c r="H20" s="6"/>
+      <c r="I20" s="6" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A21" s="5" t="s">
+        <v>190</v>
+      </c>
+      <c r="B21" s="5" t="s">
+        <v>277</v>
+      </c>
+      <c r="D21" s="5" t="s">
+        <v>278</v>
+      </c>
+      <c r="F21" s="5" t="s">
+        <v>230</v>
+      </c>
+      <c r="G21" s="9" t="s">
+        <v>249</v>
+      </c>
+      <c r="H21" s="10"/>
+      <c r="I21" s="10"/>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A22" s="5" t="s">
+        <v>279</v>
+      </c>
+      <c r="B22" s="5" t="s">
+        <v>279</v>
+      </c>
+      <c r="D22" s="5" t="s">
+        <v>280</v>
+      </c>
+      <c r="F22" s="5" t="s">
+        <v>281</v>
+      </c>
+      <c r="G22" s="9" t="s">
+        <v>249</v>
+      </c>
+      <c r="H22" s="10"/>
+      <c r="I22" s="10"/>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A23" s="5" t="s">
+        <v>131</v>
+      </c>
+      <c r="B23" s="5" t="s">
+        <v>282</v>
+      </c>
+      <c r="D23" s="5" t="s">
+        <v>283</v>
+      </c>
+      <c r="F23" s="5" t="s">
+        <v>230</v>
+      </c>
+      <c r="G23" s="6" t="s">
+        <v>131</v>
+      </c>
+      <c r="H23" s="6"/>
+      <c r="I23" s="6"/>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A24" s="5" t="s">
+        <v>284</v>
+      </c>
+      <c r="B24" s="8" t="s">
+        <v>285</v>
+      </c>
+      <c r="D24" s="5" t="s">
+        <v>286</v>
+      </c>
+      <c r="F24" s="5" t="s">
+        <v>257</v>
+      </c>
+      <c r="G24" s="8" t="s">
+        <v>284</v>
+      </c>
+      <c r="H24" s="6"/>
+      <c r="I24" s="6"/>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A25" s="5" t="s">
+        <v>287</v>
+      </c>
+      <c r="B25" s="5" t="s">
+        <v>288</v>
+      </c>
+      <c r="D25" s="5" t="s">
+        <v>286</v>
+      </c>
+      <c r="F25" s="5" t="s">
+        <v>257</v>
+      </c>
+      <c r="G25" s="8" t="s">
+        <v>165</v>
+      </c>
+      <c r="H25" s="6"/>
+      <c r="I25" s="6"/>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A26" s="5" t="s">
+        <v>196</v>
+      </c>
+      <c r="B26" s="5" t="s">
+        <v>289</v>
+      </c>
+      <c r="D26" s="5" t="s">
+        <v>286</v>
+      </c>
+      <c r="F26" s="5" t="s">
+        <v>257</v>
+      </c>
+      <c r="G26" s="8" t="s">
+        <v>196</v>
+      </c>
+      <c r="H26" s="6"/>
+      <c r="I26" s="6"/>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A27" s="5" t="s">
+        <v>135</v>
+      </c>
+      <c r="B27" s="5" t="s">
+        <v>290</v>
+      </c>
+      <c r="D27" s="5" t="s">
+        <v>286</v>
+      </c>
+      <c r="F27" s="5" t="s">
+        <v>257</v>
+      </c>
+      <c r="G27" s="8" t="s">
+        <v>135</v>
+      </c>
+      <c r="H27" s="6"/>
+      <c r="I27" s="6"/>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A28" s="5" t="s">
+        <v>291</v>
+      </c>
+      <c r="B28" s="5" t="s">
+        <v>292</v>
+      </c>
+      <c r="D28" s="5" t="s">
+        <v>286</v>
+      </c>
+      <c r="F28" s="5" t="s">
+        <v>257</v>
+      </c>
+      <c r="G28" s="8" t="s">
+        <v>135</v>
+      </c>
+      <c r="H28" s="6"/>
+      <c r="I28" s="6"/>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A29" s="5" t="s">
+        <v>293</v>
+      </c>
+      <c r="B29" s="5" t="s">
+        <v>294</v>
+      </c>
+      <c r="D29" s="5" t="s">
+        <v>295</v>
+      </c>
+      <c r="F29" s="5" t="s">
+        <v>266</v>
+      </c>
+      <c r="G29" s="6" t="s">
+        <v>177</v>
+      </c>
+      <c r="H29" s="6"/>
+      <c r="I29" s="6"/>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A30" s="5" t="s">
+        <v>296</v>
+      </c>
+      <c r="B30" s="5" t="s">
+        <v>297</v>
+      </c>
+      <c r="D30" s="5" t="s">
+        <v>286</v>
+      </c>
+      <c r="F30" s="5" t="s">
+        <v>257</v>
+      </c>
+      <c r="G30" s="6" t="s">
+        <v>165</v>
+      </c>
+      <c r="H30" s="6"/>
+      <c r="I30" s="6"/>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A31" s="5" t="s">
+        <v>298</v>
+      </c>
+      <c r="B31" s="5" t="s">
+        <v>299</v>
+      </c>
+      <c r="D31" s="5" t="s">
+        <v>271</v>
+      </c>
+      <c r="F31" s="5" t="s">
+        <v>300</v>
+      </c>
+      <c r="G31" s="6"/>
+      <c r="H31" s="6"/>
+      <c r="I31" s="6" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A32" s="5" t="s">
+        <v>301</v>
+      </c>
+      <c r="B32" s="5" t="s">
+        <v>301</v>
+      </c>
+      <c r="D32" s="5" t="s">
+        <v>302</v>
+      </c>
+      <c r="F32" s="5" t="s">
+        <v>303</v>
+      </c>
+      <c r="G32" s="9" t="s">
+        <v>249</v>
+      </c>
+      <c r="H32" s="10"/>
+      <c r="I32" s="10"/>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A33" s="5" t="s">
+        <v>304</v>
+      </c>
+      <c r="B33" s="5" t="s">
+        <v>304</v>
+      </c>
+      <c r="D33" s="5" t="s">
+        <v>305</v>
+      </c>
+      <c r="F33" s="5" t="s">
+        <v>306</v>
+      </c>
+      <c r="G33" s="6"/>
+      <c r="H33" s="6"/>
+      <c r="I33" s="6" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A34" s="5" t="s">
+        <v>307</v>
+      </c>
+      <c r="B34" s="5" t="s">
+        <v>307</v>
+      </c>
+      <c r="D34" s="5" t="s">
+        <v>286</v>
+      </c>
+      <c r="F34" s="5" t="s">
+        <v>257</v>
+      </c>
+      <c r="G34" s="6" t="s">
+        <v>165</v>
+      </c>
+      <c r="H34" s="6"/>
+      <c r="I34" s="6"/>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A35" s="5" t="s">
+        <v>308</v>
+      </c>
+      <c r="B35" s="5" t="s">
+        <v>308</v>
+      </c>
+      <c r="D35" s="5" t="s">
+        <v>286</v>
+      </c>
+      <c r="F35" s="5" t="s">
+        <v>257</v>
+      </c>
+      <c r="G35" s="6" t="s">
+        <v>135</v>
+      </c>
+      <c r="H35" s="6"/>
+      <c r="I35" s="6"/>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A36" s="5" t="s">
+        <v>309</v>
+      </c>
+      <c r="B36" s="5" t="s">
+        <v>309</v>
+      </c>
+      <c r="D36" s="5" t="s">
+        <v>286</v>
+      </c>
+      <c r="F36" s="5" t="s">
+        <v>257</v>
+      </c>
+      <c r="G36" s="6" t="s">
+        <v>135</v>
+      </c>
+      <c r="H36" s="6"/>
+      <c r="I36" s="6"/>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A37" s="5" t="s">
+        <v>310</v>
+      </c>
+      <c r="B37" s="5" t="s">
+        <v>310</v>
+      </c>
+      <c r="D37" s="5" t="s">
+        <v>286</v>
+      </c>
+      <c r="F37" s="5" t="s">
+        <v>257</v>
+      </c>
+      <c r="G37" s="6" t="s">
+        <v>135</v>
+      </c>
+      <c r="H37" s="6"/>
+      <c r="I37" s="6"/>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A38" s="5" t="s">
+        <v>311</v>
+      </c>
+      <c r="B38" s="5" t="s">
+        <v>311</v>
+      </c>
+      <c r="D38" s="5" t="s">
+        <v>286</v>
+      </c>
+      <c r="F38" s="5" t="s">
+        <v>257</v>
+      </c>
+      <c r="G38" s="6" t="s">
+        <v>135</v>
+      </c>
+      <c r="H38" s="6"/>
+      <c r="I38" s="6"/>
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A39" s="5" t="s">
+        <v>312</v>
+      </c>
+      <c r="B39" s="5" t="s">
+        <v>313</v>
+      </c>
+      <c r="D39" s="5" t="s">
+        <v>314</v>
+      </c>
+      <c r="F39" s="5" t="s">
+        <v>315</v>
+      </c>
+      <c r="G39" s="6"/>
+      <c r="H39" s="6"/>
+      <c r="I39" s="6" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A40" s="5" t="s">
+        <v>316</v>
+      </c>
+      <c r="B40" s="5" t="s">
+        <v>317</v>
+      </c>
+      <c r="D40" s="5" t="s">
+        <v>318</v>
+      </c>
+      <c r="F40" s="5" t="s">
+        <v>315</v>
+      </c>
+      <c r="G40" s="6"/>
+      <c r="H40" s="6" t="s">
+        <v>109</v>
+      </c>
+      <c r="I40" s="6"/>
+    </row>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A41" s="5" t="s">
+        <v>319</v>
+      </c>
+      <c r="B41" s="5" t="s">
+        <v>320</v>
+      </c>
+      <c r="D41" s="5" t="s">
+        <v>305</v>
+      </c>
+      <c r="F41" s="5" t="s">
+        <v>230</v>
+      </c>
+      <c r="G41" s="6"/>
+      <c r="H41" s="6"/>
+      <c r="I41" s="6" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A42" s="5" t="s">
+        <v>321</v>
+      </c>
+      <c r="B42" s="5" t="s">
+        <v>322</v>
+      </c>
+      <c r="C42" s="5" t="s">
+        <v>323</v>
+      </c>
+      <c r="D42" s="5" t="s">
+        <v>324</v>
+      </c>
+      <c r="F42" s="5" t="s">
+        <v>266</v>
+      </c>
+      <c r="G42" s="6"/>
+      <c r="H42" s="6"/>
+      <c r="I42" s="6" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A43" s="5" t="s">
+        <v>325</v>
+      </c>
+      <c r="B43" s="8" t="s">
+        <v>326</v>
+      </c>
+      <c r="D43" s="5" t="s">
+        <v>327</v>
+      </c>
+      <c r="F43" s="5" t="s">
+        <v>257</v>
+      </c>
+      <c r="G43" s="6" t="s">
+        <v>111</v>
+      </c>
+      <c r="H43" s="6"/>
+      <c r="I43" s="6"/>
+    </row>
+    <row r="44" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A44" s="5" t="s">
+        <v>114</v>
+      </c>
+      <c r="B44" s="12" t="s">
+        <v>328</v>
+      </c>
+      <c r="D44" s="5" t="s">
+        <v>327</v>
+      </c>
+      <c r="F44" s="5" t="s">
+        <v>257</v>
+      </c>
+      <c r="G44" s="6" t="s">
+        <v>114</v>
+      </c>
+      <c r="H44" s="6"/>
+      <c r="I44" s="6"/>
+    </row>
+    <row r="45" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A45" s="5" t="s">
+        <v>329</v>
+      </c>
+      <c r="B45" s="5" t="s">
+        <v>330</v>
+      </c>
+      <c r="D45" s="5" t="s">
+        <v>305</v>
+      </c>
+      <c r="F45" s="5" t="s">
+        <v>230</v>
+      </c>
+      <c r="G45" s="9" t="s">
+        <v>249</v>
+      </c>
+      <c r="H45" s="10"/>
+      <c r="I45" s="10"/>
+    </row>
+    <row r="46" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A46" s="5" t="s">
+        <v>204</v>
+      </c>
+      <c r="B46" s="5" t="s">
+        <v>331</v>
+      </c>
+      <c r="D46" s="5" t="s">
+        <v>327</v>
+      </c>
+      <c r="F46" s="5" t="s">
+        <v>237</v>
+      </c>
+      <c r="G46" s="6" t="s">
+        <v>204</v>
+      </c>
+      <c r="H46" s="6"/>
+      <c r="I46" s="6"/>
+    </row>
+    <row r="47" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A47" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="B47" s="5" t="s">
+        <v>332</v>
+      </c>
+      <c r="D47" s="5" t="s">
+        <v>318</v>
+      </c>
+      <c r="F47" s="5" t="s">
+        <v>266</v>
+      </c>
+      <c r="G47" s="6" t="s">
+        <v>109</v>
+      </c>
+      <c r="H47" s="6"/>
+      <c r="I47" s="6"/>
+    </row>
+    <row r="48" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A48" s="5" t="s">
+        <v>333</v>
+      </c>
+      <c r="B48" s="12" t="s">
+        <v>334</v>
+      </c>
+      <c r="D48" s="5" t="s">
+        <v>318</v>
+      </c>
+      <c r="F48" s="5" t="s">
+        <v>266</v>
+      </c>
+      <c r="G48" s="6" t="s">
+        <v>109</v>
+      </c>
+      <c r="H48" s="6"/>
+      <c r="I48" s="6"/>
+    </row>
+    <row r="49" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A49" s="5" t="s">
+        <v>335</v>
+      </c>
+      <c r="B49" s="5" t="s">
+        <v>336</v>
+      </c>
+      <c r="D49" s="5" t="s">
+        <v>337</v>
+      </c>
+      <c r="F49" s="5" t="s">
+        <v>338</v>
+      </c>
+      <c r="G49" s="9" t="s">
+        <v>249</v>
+      </c>
+      <c r="H49" s="10"/>
+      <c r="I49" s="10"/>
+    </row>
+    <row r="50" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A50" s="5" t="s">
+        <v>339</v>
+      </c>
+      <c r="B50" s="5" t="s">
+        <v>340</v>
+      </c>
+      <c r="D50" s="5" t="s">
+        <v>283</v>
+      </c>
+      <c r="F50" s="5" t="s">
+        <v>341</v>
+      </c>
+      <c r="G50" s="9" t="s">
+        <v>249</v>
+      </c>
+      <c r="H50" s="10"/>
+      <c r="I50" s="10"/>
+    </row>
+    <row r="51" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A51" s="5" t="s">
+        <v>342</v>
+      </c>
+      <c r="B51" s="5" t="s">
+        <v>342</v>
+      </c>
+      <c r="F51" s="5" t="s">
+        <v>257</v>
+      </c>
+      <c r="G51" s="6" t="s">
+        <v>114</v>
+      </c>
+      <c r="H51" s="6"/>
+      <c r="I51" s="6" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A52" s="5" t="s">
+        <v>121</v>
+      </c>
+      <c r="B52" s="5" t="s">
+        <v>343</v>
+      </c>
+      <c r="D52" s="5" t="s">
+        <v>324</v>
+      </c>
+      <c r="F52" s="5" t="s">
+        <v>344</v>
+      </c>
+      <c r="G52" s="6" t="s">
+        <v>122</v>
+      </c>
+      <c r="H52" s="6"/>
+      <c r="I52" s="6"/>
+    </row>
+    <row r="53" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A53" s="5" t="s">
+        <v>215</v>
+      </c>
+      <c r="B53" s="5" t="s">
+        <v>345</v>
+      </c>
+      <c r="D53" s="5" t="s">
+        <v>324</v>
+      </c>
+      <c r="F53" s="5" t="s">
+        <v>344</v>
+      </c>
+      <c r="G53" s="9" t="s">
+        <v>122</v>
+      </c>
+      <c r="H53" s="6"/>
+      <c r="I53" s="6"/>
+    </row>
+    <row r="54" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A54" s="5" t="s">
+        <v>346</v>
+      </c>
+      <c r="B54" s="5" t="s">
+        <v>347</v>
+      </c>
+      <c r="D54" s="5" t="s">
+        <v>302</v>
+      </c>
+      <c r="F54" s="5" t="s">
+        <v>276</v>
+      </c>
+      <c r="G54" s="6" t="s">
+        <v>118</v>
+      </c>
+      <c r="H54" s="6"/>
+      <c r="I54" s="6"/>
+    </row>
+    <row r="55" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A55" s="5" t="s">
+        <v>119</v>
+      </c>
+      <c r="B55" s="5" t="s">
+        <v>348</v>
+      </c>
+      <c r="D55" s="5" t="s">
+        <v>349</v>
+      </c>
+      <c r="F55" s="5" t="s">
+        <v>344</v>
+      </c>
+      <c r="G55" s="6" t="s">
+        <v>119</v>
+      </c>
+      <c r="H55" s="6"/>
+      <c r="I55" s="6"/>
+    </row>
+    <row r="56" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A56" s="5" t="s">
+        <v>350</v>
+      </c>
+      <c r="B56" s="5" t="s">
+        <v>351</v>
+      </c>
+      <c r="D56" s="13" t="s">
+        <v>305</v>
+      </c>
+      <c r="E56" s="13"/>
+      <c r="F56" s="5" t="s">
+        <v>306</v>
+      </c>
+      <c r="G56" s="6"/>
+      <c r="H56" s="6"/>
+      <c r="I56" s="4" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A57" s="5" t="s">
+        <v>352</v>
+      </c>
+      <c r="B57" s="5" t="s">
+        <v>353</v>
+      </c>
+      <c r="D57" s="5" t="s">
+        <v>349</v>
+      </c>
+      <c r="F57" s="5" t="s">
+        <v>306</v>
+      </c>
+      <c r="G57" s="6"/>
+      <c r="H57" s="6"/>
+      <c r="I57" s="4" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A58" s="5" t="s">
+        <v>354</v>
+      </c>
+      <c r="B58" s="5" t="s">
+        <v>355</v>
+      </c>
+      <c r="D58" s="5" t="s">
+        <v>349</v>
+      </c>
+      <c r="F58" s="5" t="s">
+        <v>306</v>
+      </c>
+      <c r="G58" s="6"/>
+      <c r="H58" s="6"/>
+      <c r="I58" s="4" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A59" s="5" t="s">
+        <v>356</v>
+      </c>
+      <c r="B59" s="5" t="s">
+        <v>357</v>
+      </c>
+      <c r="D59" s="5" t="s">
+        <v>349</v>
+      </c>
+      <c r="F59" s="5" t="s">
+        <v>306</v>
+      </c>
+      <c r="G59" s="6"/>
+      <c r="H59" s="6"/>
+      <c r="I59" s="4" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A60" s="5" t="s">
+        <v>358</v>
+      </c>
+      <c r="B60" s="5" t="s">
+        <v>359</v>
+      </c>
+      <c r="D60" s="5" t="s">
+        <v>349</v>
+      </c>
+      <c r="F60" s="5" t="s">
+        <v>306</v>
+      </c>
+      <c r="G60" s="6"/>
+      <c r="H60" s="6"/>
+      <c r="I60" s="4" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A61" s="5" t="s">
+        <v>360</v>
+      </c>
+      <c r="B61" s="5" t="s">
+        <v>361</v>
+      </c>
+      <c r="D61" s="5" t="s">
+        <v>349</v>
+      </c>
+      <c r="F61" s="5" t="s">
+        <v>281</v>
+      </c>
+      <c r="G61" s="6"/>
+      <c r="H61" s="6"/>
+      <c r="I61" s="4" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A62" s="5" t="s">
+        <v>362</v>
+      </c>
+      <c r="B62" s="5" t="s">
+        <v>363</v>
+      </c>
+      <c r="D62" s="5" t="s">
+        <v>364</v>
+      </c>
+      <c r="F62" s="5" t="s">
+        <v>306</v>
+      </c>
+      <c r="G62" s="6"/>
+      <c r="H62" s="6"/>
+      <c r="I62" s="6" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A63" s="5" t="s">
+        <v>134</v>
+      </c>
+      <c r="B63" s="5" t="s">
+        <v>365</v>
+      </c>
+      <c r="D63" s="5" t="s">
+        <v>286</v>
+      </c>
+      <c r="F63" s="5" t="s">
+        <v>257</v>
+      </c>
+      <c r="G63" s="6"/>
+      <c r="H63" s="4" t="s">
+        <v>135</v>
+      </c>
+      <c r="I63" s="6"/>
+    </row>
+    <row r="64" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A64" s="5" t="s">
+        <v>141</v>
+      </c>
+      <c r="B64" s="5" t="s">
+        <v>366</v>
+      </c>
+      <c r="D64" s="5" t="s">
+        <v>367</v>
+      </c>
+      <c r="F64" s="5" t="s">
+        <v>368</v>
+      </c>
+      <c r="G64" s="6"/>
+      <c r="H64" s="6"/>
+      <c r="I64" s="4" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A65" s="5" t="s">
+        <v>369</v>
+      </c>
+      <c r="B65" s="5" t="s">
+        <v>370</v>
+      </c>
+      <c r="C65" s="5" t="s">
+        <v>323</v>
+      </c>
+      <c r="D65" s="5" t="s">
+        <v>371</v>
+      </c>
+      <c r="F65" s="5" t="s">
+        <v>230</v>
+      </c>
+      <c r="G65" s="6" t="s">
+        <v>143</v>
+      </c>
+      <c r="H65" s="6"/>
+      <c r="I65" s="6"/>
+    </row>
+    <row r="66" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A66" s="5" t="s">
+        <v>372</v>
+      </c>
+      <c r="B66" s="5" t="s">
+        <v>373</v>
+      </c>
+      <c r="D66" s="5" t="s">
+        <v>371</v>
+      </c>
+      <c r="F66" s="5" t="s">
+        <v>230</v>
+      </c>
+      <c r="G66" s="6" t="s">
+        <v>143</v>
+      </c>
+      <c r="H66" s="6"/>
+      <c r="I66" s="6"/>
+    </row>
+    <row r="67" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A67" s="5" t="s">
+        <v>374</v>
+      </c>
+      <c r="B67" s="8" t="s">
+        <v>375</v>
+      </c>
+      <c r="D67" s="5" t="s">
+        <v>371</v>
+      </c>
+      <c r="F67" s="5" t="s">
+        <v>230</v>
+      </c>
+      <c r="G67" s="6" t="s">
+        <v>143</v>
+      </c>
+      <c r="H67" s="6"/>
+      <c r="I67" s="6"/>
+    </row>
+    <row r="68" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A68" s="5" t="s">
+        <v>376</v>
+      </c>
+      <c r="B68" s="8" t="s">
+        <v>377</v>
+      </c>
+      <c r="D68" s="5" t="s">
+        <v>371</v>
+      </c>
+      <c r="F68" s="5" t="s">
+        <v>230</v>
+      </c>
+      <c r="G68" s="6" t="s">
+        <v>143</v>
+      </c>
+      <c r="H68" s="6"/>
+      <c r="I68" s="6"/>
+    </row>
+    <row r="69" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A69" s="5" t="s">
+        <v>378</v>
+      </c>
+      <c r="B69" s="5" t="s">
+        <v>379</v>
+      </c>
+      <c r="D69" s="5" t="s">
+        <v>380</v>
+      </c>
+      <c r="F69" s="5" t="s">
+        <v>230</v>
+      </c>
+      <c r="G69" s="6"/>
+      <c r="H69" s="6"/>
+      <c r="I69" s="6" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="70" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A70" s="5" t="s">
+        <v>381</v>
+      </c>
+      <c r="B70" s="5" t="s">
+        <v>382</v>
+      </c>
+      <c r="D70" s="5" t="s">
+        <v>271</v>
+      </c>
+      <c r="F70" s="5" t="s">
+        <v>272</v>
+      </c>
+      <c r="G70" s="9" t="s">
+        <v>249</v>
+      </c>
+      <c r="H70" s="10"/>
+      <c r="I70" s="10"/>
+    </row>
+    <row r="71" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A71" s="5" t="s">
+        <v>383</v>
+      </c>
+      <c r="B71" s="5" t="s">
+        <v>384</v>
+      </c>
+      <c r="D71" s="5" t="s">
+        <v>371</v>
+      </c>
+      <c r="F71" s="5" t="s">
+        <v>230</v>
+      </c>
+      <c r="G71" s="6" t="s">
+        <v>142</v>
+      </c>
+      <c r="H71" s="6"/>
+      <c r="I71" s="6"/>
+    </row>
+    <row r="72" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A72" s="5" t="s">
+        <v>385</v>
+      </c>
+      <c r="B72" s="5" t="s">
+        <v>385</v>
+      </c>
+      <c r="D72" s="5" t="s">
+        <v>371</v>
+      </c>
+      <c r="F72" s="5" t="s">
+        <v>230</v>
+      </c>
+      <c r="G72" s="6" t="s">
+        <v>143</v>
+      </c>
+      <c r="H72" s="6"/>
+      <c r="I72" s="6"/>
+    </row>
+    <row r="73" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A73" s="5" t="s">
+        <v>386</v>
+      </c>
+      <c r="B73" s="5" t="s">
+        <v>386</v>
+      </c>
+      <c r="D73" s="5" t="s">
+        <v>371</v>
+      </c>
+      <c r="F73" s="5" t="s">
+        <v>230</v>
+      </c>
+      <c r="G73" s="6" t="s">
+        <v>143</v>
+      </c>
+      <c r="H73" s="6"/>
+      <c r="I73" s="6"/>
+    </row>
+    <row r="74" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A74" s="5" t="s">
+        <v>387</v>
+      </c>
+      <c r="B74" s="5" t="s">
+        <v>387</v>
+      </c>
+      <c r="D74" s="5" t="s">
+        <v>371</v>
+      </c>
+      <c r="F74" s="5" t="s">
+        <v>230</v>
+      </c>
+      <c r="G74" s="6" t="s">
+        <v>143</v>
+      </c>
+      <c r="H74" s="6"/>
+      <c r="I74" s="6"/>
+    </row>
+    <row r="75" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A75" s="5" t="s">
+        <v>388</v>
+      </c>
+      <c r="B75" s="5" t="s">
+        <v>388</v>
+      </c>
+      <c r="D75" s="5" t="s">
+        <v>371</v>
+      </c>
+      <c r="F75" s="5" t="s">
+        <v>230</v>
+      </c>
+      <c r="G75" s="6" t="s">
+        <v>143</v>
+      </c>
+      <c r="H75" s="6"/>
+      <c r="I75" s="6"/>
+    </row>
+    <row r="76" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A76" s="5" t="s">
+        <v>389</v>
+      </c>
+      <c r="B76" s="5" t="s">
+        <v>390</v>
+      </c>
+      <c r="D76" s="5" t="s">
+        <v>324</v>
+      </c>
+      <c r="F76" s="5" t="s">
+        <v>266</v>
+      </c>
+      <c r="G76" s="6"/>
+      <c r="H76" s="6" t="s">
+        <v>161</v>
+      </c>
+      <c r="I76" s="6"/>
+    </row>
+    <row r="77" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A77" s="5" t="s">
+        <v>391</v>
+      </c>
+      <c r="B77" s="5" t="s">
+        <v>392</v>
+      </c>
+      <c r="C77" s="5" t="s">
+        <v>393</v>
+      </c>
+      <c r="D77" s="5" t="s">
+        <v>394</v>
+      </c>
+      <c r="F77" s="5" t="s">
+        <v>344</v>
+      </c>
+      <c r="G77" s="6"/>
+      <c r="H77" s="6"/>
+      <c r="I77" s="4" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="78" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A78" s="5" t="s">
+        <v>395</v>
+      </c>
+      <c r="B78" s="5" t="s">
+        <v>396</v>
+      </c>
+      <c r="D78" s="5" t="s">
+        <v>271</v>
+      </c>
+      <c r="F78" s="5" t="s">
+        <v>397</v>
+      </c>
+      <c r="G78" s="6"/>
+      <c r="H78" s="6"/>
+      <c r="I78" s="6" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="79" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A79" s="5" t="s">
+        <v>398</v>
+      </c>
+      <c r="B79" s="5" t="s">
+        <v>399</v>
+      </c>
+      <c r="D79" s="5" t="s">
+        <v>400</v>
+      </c>
+      <c r="F79" s="5" t="s">
+        <v>266</v>
+      </c>
+      <c r="G79" s="6"/>
+      <c r="H79" s="6"/>
+      <c r="I79" s="6" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="80" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A80" s="5" t="s">
+        <v>401</v>
+      </c>
+      <c r="B80" s="5" t="s">
+        <v>402</v>
+      </c>
+      <c r="C80" s="5" t="s">
+        <v>264</v>
+      </c>
+      <c r="D80" s="5" t="s">
+        <v>403</v>
+      </c>
+      <c r="F80" s="5" t="s">
+        <v>344</v>
+      </c>
+      <c r="G80" s="6"/>
+      <c r="H80" s="6"/>
+      <c r="I80" s="6" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="81" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A81" s="14" t="s">
+        <v>404</v>
+      </c>
+      <c r="B81" s="14" t="s">
+        <v>405</v>
+      </c>
+      <c r="D81" s="5" t="s">
+        <v>406</v>
+      </c>
+      <c r="F81" s="5" t="s">
+        <v>237</v>
+      </c>
+      <c r="G81" s="6"/>
+      <c r="H81" s="6"/>
+      <c r="I81" s="6" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="82" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A82" s="5" t="s">
+        <v>158</v>
+      </c>
+      <c r="B82" s="5" t="s">
+        <v>407</v>
+      </c>
+      <c r="D82" s="5" t="s">
+        <v>408</v>
+      </c>
+      <c r="F82" s="5" t="s">
+        <v>409</v>
+      </c>
+      <c r="G82" s="6" t="s">
+        <v>158</v>
+      </c>
+      <c r="H82" s="6"/>
+      <c r="I82" s="6"/>
+    </row>
+    <row r="83" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A83" s="5" t="s">
+        <v>116</v>
+      </c>
+      <c r="B83" s="5" t="s">
+        <v>410</v>
+      </c>
+      <c r="D83" s="5" t="s">
+        <v>305</v>
+      </c>
+      <c r="F83" s="5" t="s">
+        <v>281</v>
+      </c>
+      <c r="G83" s="6" t="s">
+        <v>116</v>
+      </c>
+      <c r="H83" s="6"/>
+      <c r="I83" s="6"/>
+    </row>
+    <row r="84" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A84" s="5" t="s">
+        <v>155</v>
+      </c>
+      <c r="B84" s="5" t="s">
+        <v>411</v>
+      </c>
+      <c r="D84" s="5" t="s">
+        <v>314</v>
+      </c>
+      <c r="F84" s="5" t="s">
+        <v>266</v>
+      </c>
+      <c r="G84" s="6" t="s">
+        <v>155</v>
+      </c>
+      <c r="H84" s="6"/>
+      <c r="I84" s="6"/>
+    </row>
+    <row r="85" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A85" s="5" t="s">
+        <v>412</v>
+      </c>
+      <c r="B85" s="5" t="s">
+        <v>413</v>
+      </c>
+      <c r="D85" s="5" t="s">
+        <v>414</v>
+      </c>
+      <c r="F85" s="5" t="s">
+        <v>281</v>
+      </c>
+      <c r="G85" s="6"/>
+      <c r="H85" s="6"/>
+      <c r="I85" s="6" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="86" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A86" s="5" t="s">
+        <v>415</v>
+      </c>
+      <c r="B86" s="5" t="s">
+        <v>416</v>
+      </c>
+      <c r="D86" s="5" t="s">
+        <v>414</v>
+      </c>
+      <c r="F86" s="5" t="s">
+        <v>230</v>
+      </c>
+      <c r="G86" s="6"/>
+      <c r="H86" s="6"/>
+      <c r="I86" s="6" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="87" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A87" s="5" t="s">
+        <v>415</v>
+      </c>
+      <c r="B87" s="5" t="s">
+        <v>416</v>
+      </c>
+      <c r="D87" s="5" t="s">
+        <v>414</v>
+      </c>
+      <c r="F87" s="5" t="s">
+        <v>230</v>
+      </c>
+      <c r="G87" s="6"/>
+      <c r="H87" s="6"/>
+      <c r="I87" s="6" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="88" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A88" s="5" t="s">
+        <v>417</v>
+      </c>
+      <c r="B88" s="5" t="s">
+        <v>418</v>
+      </c>
+      <c r="D88" s="5" t="s">
+        <v>337</v>
+      </c>
+      <c r="F88" s="5" t="s">
+        <v>281</v>
+      </c>
+      <c r="G88" s="6"/>
+      <c r="H88" s="6"/>
+      <c r="I88" s="6" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="89" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A89" s="5" t="s">
+        <v>161</v>
+      </c>
+      <c r="B89" s="5" t="s">
+        <v>419</v>
+      </c>
+      <c r="D89" s="11" t="s">
+        <v>324</v>
+      </c>
+      <c r="E89" s="11"/>
+      <c r="F89" s="5" t="s">
+        <v>344</v>
+      </c>
+      <c r="G89" s="6" t="s">
+        <v>161</v>
+      </c>
+      <c r="H89" s="6"/>
+      <c r="I89" s="6"/>
+    </row>
+    <row r="90" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A90" s="5" t="s">
+        <v>420</v>
+      </c>
+      <c r="B90" s="5" t="s">
+        <v>421</v>
+      </c>
+      <c r="D90" s="5" t="s">
+        <v>422</v>
+      </c>
+      <c r="F90" s="5" t="s">
+        <v>230</v>
+      </c>
+      <c r="G90" s="9"/>
+      <c r="H90" s="10"/>
+      <c r="I90" s="15" t="s">
+        <v>116</v>
+      </c>
+      <c r="K90" s="5" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="91" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A91" s="5" t="s">
+        <v>423</v>
+      </c>
+      <c r="B91" s="5" t="s">
+        <v>424</v>
+      </c>
+      <c r="D91" s="5" t="s">
+        <v>337</v>
+      </c>
+      <c r="F91" s="5" t="s">
+        <v>281</v>
+      </c>
+      <c r="G91" s="6"/>
+      <c r="H91" s="6"/>
+      <c r="I91" s="6" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="92" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A92" s="5" t="s">
+        <v>425</v>
+      </c>
+      <c r="B92" s="5" t="s">
+        <v>425</v>
+      </c>
+      <c r="D92" s="11" t="s">
+        <v>426</v>
+      </c>
+      <c r="E92" s="11"/>
+      <c r="F92" s="5" t="s">
+        <v>306</v>
+      </c>
+      <c r="G92" s="6"/>
+      <c r="H92" s="6"/>
+      <c r="I92" s="6" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="93" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A93" s="5" t="s">
+        <v>427</v>
+      </c>
+      <c r="B93" s="5" t="s">
+        <v>428</v>
+      </c>
+      <c r="D93" s="5" t="s">
+        <v>414</v>
+      </c>
+      <c r="F93" s="5" t="s">
+        <v>230</v>
+      </c>
+      <c r="G93" s="6"/>
+      <c r="H93" s="6"/>
+      <c r="I93" s="6" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="94" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A94" s="5" t="s">
+        <v>429</v>
+      </c>
+      <c r="B94" s="5" t="s">
+        <v>430</v>
+      </c>
+      <c r="D94" s="5" t="s">
+        <v>305</v>
+      </c>
+      <c r="F94" s="5" t="s">
+        <v>281</v>
+      </c>
+      <c r="G94" s="6" t="s">
+        <v>116</v>
+      </c>
+      <c r="H94" s="6"/>
+      <c r="I94" s="6"/>
+    </row>
+    <row r="95" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A95" s="5" t="s">
+        <v>162</v>
+      </c>
+      <c r="B95" s="5" t="s">
+        <v>431</v>
+      </c>
+      <c r="D95" s="5" t="s">
+        <v>432</v>
+      </c>
+      <c r="F95" s="5" t="s">
+        <v>338</v>
+      </c>
+      <c r="G95" s="9" t="s">
+        <v>249</v>
+      </c>
+      <c r="H95" s="10"/>
+      <c r="I95" s="4" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="96" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A96" s="5" t="s">
+        <v>150</v>
+      </c>
+      <c r="B96" s="5" t="s">
+        <v>433</v>
+      </c>
+      <c r="D96" s="5" t="s">
+        <v>434</v>
+      </c>
+      <c r="F96" s="5" t="s">
+        <v>344</v>
+      </c>
+      <c r="G96" s="6" t="s">
+        <v>150</v>
+      </c>
+      <c r="H96" s="6"/>
+      <c r="I96" s="6"/>
+    </row>
+    <row r="97" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A97" s="5" t="s">
+        <v>435</v>
+      </c>
+      <c r="B97" s="5" t="s">
+        <v>435</v>
+      </c>
+      <c r="D97" s="5" t="s">
+        <v>302</v>
+      </c>
+      <c r="F97" s="5" t="s">
+        <v>257</v>
+      </c>
+      <c r="G97" s="6" t="s">
+        <v>139</v>
+      </c>
+      <c r="H97" s="6"/>
+      <c r="I97" s="6"/>
+    </row>
+    <row r="98" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A98" s="5" t="s">
+        <v>436</v>
+      </c>
+      <c r="B98" s="5" t="s">
+        <v>437</v>
+      </c>
+      <c r="C98" s="5" t="s">
+        <v>438</v>
+      </c>
+      <c r="D98" s="5" t="s">
+        <v>314</v>
+      </c>
+      <c r="F98" s="5" t="s">
+        <v>266</v>
+      </c>
+      <c r="G98" s="6"/>
+      <c r="H98" s="6"/>
+      <c r="I98" s="6" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="99" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A99" s="5" t="s">
+        <v>439</v>
+      </c>
+      <c r="B99" s="5" t="s">
+        <v>440</v>
+      </c>
+      <c r="D99" s="5" t="s">
+        <v>441</v>
+      </c>
+      <c r="F99" s="5" t="s">
+        <v>344</v>
+      </c>
+      <c r="G99" s="6"/>
+      <c r="H99" s="6"/>
+      <c r="I99" s="4" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="100" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A100" s="5" t="s">
+        <v>442</v>
+      </c>
+      <c r="B100" s="5" t="s">
+        <v>443</v>
+      </c>
+      <c r="D100" s="5" t="s">
+        <v>441</v>
+      </c>
+      <c r="F100" s="5" t="s">
+        <v>344</v>
+      </c>
+      <c r="G100" s="6"/>
+      <c r="H100" s="6"/>
+      <c r="I100" s="4" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="101" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A101" s="5" t="s">
+        <v>444</v>
+      </c>
+      <c r="B101" s="5" t="s">
+        <v>445</v>
+      </c>
+      <c r="D101" s="5" t="s">
+        <v>441</v>
+      </c>
+      <c r="F101" s="5" t="s">
+        <v>344</v>
+      </c>
+      <c r="G101" s="6"/>
+      <c r="H101" s="6"/>
+      <c r="I101" s="4" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="102" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A102" s="5" t="s">
+        <v>446</v>
+      </c>
+      <c r="B102" s="5" t="s">
+        <v>447</v>
+      </c>
+      <c r="D102" s="5" t="s">
+        <v>448</v>
+      </c>
+      <c r="F102" s="5" t="s">
+        <v>266</v>
+      </c>
+      <c r="G102" s="6" t="s">
+        <v>168</v>
+      </c>
+      <c r="H102" s="6"/>
+      <c r="I102" s="6"/>
+    </row>
+    <row r="103" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A103" s="5" t="s">
+        <v>449</v>
+      </c>
+      <c r="B103" s="5" t="s">
+        <v>450</v>
+      </c>
+      <c r="D103" s="5" t="s">
+        <v>441</v>
+      </c>
+      <c r="F103" s="5" t="s">
+        <v>344</v>
+      </c>
+      <c r="G103" s="6"/>
+      <c r="H103" s="6"/>
+      <c r="I103" s="4" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="104" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A104" s="5" t="s">
+        <v>451</v>
+      </c>
+      <c r="B104" s="5" t="s">
+        <v>452</v>
+      </c>
+      <c r="D104" s="5" t="s">
+        <v>441</v>
+      </c>
+      <c r="F104" s="5" t="s">
+        <v>344</v>
+      </c>
+      <c r="G104" s="6"/>
+      <c r="H104" s="6"/>
+      <c r="I104" s="4" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="105" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A105" s="5" t="s">
+        <v>453</v>
+      </c>
+      <c r="B105" s="5" t="s">
+        <v>454</v>
+      </c>
+      <c r="D105" s="5" t="s">
+        <v>441</v>
+      </c>
+      <c r="F105" s="5" t="s">
+        <v>344</v>
+      </c>
+      <c r="G105" s="6"/>
+      <c r="H105" s="6"/>
+      <c r="I105" s="4" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="106" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A106" s="5" t="s">
+        <v>455</v>
+      </c>
+      <c r="B106" s="5" t="s">
+        <v>456</v>
+      </c>
+      <c r="D106" s="5" t="s">
+        <v>371</v>
+      </c>
+      <c r="F106" s="5" t="s">
+        <v>230</v>
+      </c>
+      <c r="G106" s="6"/>
+      <c r="H106" s="6"/>
+      <c r="I106" s="4" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="107" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A107" s="5" t="s">
+        <v>457</v>
+      </c>
+      <c r="B107" s="5" t="s">
+        <v>458</v>
+      </c>
+      <c r="D107" s="5" t="s">
+        <v>441</v>
+      </c>
+      <c r="F107" s="5" t="s">
+        <v>344</v>
+      </c>
+      <c r="G107" s="6" t="s">
+        <v>169</v>
+      </c>
+      <c r="H107" s="6"/>
+      <c r="I107" s="6"/>
+    </row>
+    <row r="108" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A108" s="5" t="s">
+        <v>459</v>
+      </c>
+      <c r="B108" s="5" t="s">
+        <v>460</v>
+      </c>
+      <c r="D108" s="5" t="s">
+        <v>305</v>
+      </c>
+      <c r="F108" s="5" t="s">
+        <v>266</v>
+      </c>
+      <c r="G108" s="6"/>
+      <c r="H108" s="6"/>
+      <c r="I108" s="6" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="109" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A109" s="5" t="s">
+        <v>461</v>
+      </c>
+      <c r="B109" s="5" t="s">
+        <v>462</v>
+      </c>
+      <c r="D109" s="5" t="s">
+        <v>448</v>
+      </c>
+      <c r="F109" s="5" t="s">
+        <v>281</v>
+      </c>
+      <c r="G109" s="6"/>
+      <c r="H109" s="6"/>
+      <c r="I109" s="8" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="110" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A110" s="5" t="s">
+        <v>464</v>
+      </c>
+      <c r="B110" s="5" t="s">
+        <v>464</v>
+      </c>
+      <c r="D110" s="5" t="s">
+        <v>414</v>
+      </c>
+      <c r="F110" s="5" t="s">
+        <v>281</v>
+      </c>
+      <c r="G110" s="6"/>
+      <c r="H110" s="6"/>
+      <c r="I110" s="6" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="111" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A111" s="5" t="s">
+        <v>465</v>
+      </c>
+      <c r="B111" s="5" t="s">
+        <v>465</v>
+      </c>
+      <c r="D111" s="5" t="s">
+        <v>260</v>
+      </c>
+      <c r="F111" s="5" t="s">
+        <v>272</v>
+      </c>
+      <c r="G111" s="6"/>
+      <c r="H111" s="6"/>
+      <c r="I111" s="6" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="112" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A112" s="5" t="s">
+        <v>466</v>
+      </c>
+      <c r="B112" s="5" t="s">
+        <v>466</v>
+      </c>
+      <c r="D112" s="5" t="s">
+        <v>271</v>
+      </c>
+      <c r="F112" s="5" t="s">
+        <v>300</v>
+      </c>
+      <c r="G112" s="9" t="s">
+        <v>249</v>
+      </c>
+      <c r="H112" s="6"/>
+      <c r="I112" s="6"/>
+    </row>
+    <row r="113" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A113" s="5" t="s">
+        <v>467</v>
+      </c>
+      <c r="B113" s="5" t="s">
+        <v>467</v>
+      </c>
+      <c r="D113" s="5" t="s">
+        <v>271</v>
+      </c>
+      <c r="F113" s="5" t="s">
+        <v>272</v>
+      </c>
+      <c r="G113" s="6"/>
+      <c r="H113" s="6"/>
+      <c r="I113" s="6" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="114" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A114" s="5" t="s">
+        <v>468</v>
+      </c>
+      <c r="B114" s="5" t="s">
+        <v>469</v>
+      </c>
+      <c r="D114" s="5" t="s">
+        <v>448</v>
+      </c>
+      <c r="F114" s="5" t="s">
+        <v>266</v>
+      </c>
+      <c r="G114" s="8" t="s">
+        <v>468</v>
+      </c>
+      <c r="H114" s="6"/>
+      <c r="I114" s="6"/>
+    </row>
+    <row r="115" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A115" s="5" t="s">
+        <v>470</v>
+      </c>
+      <c r="B115" s="5" t="s">
+        <v>470</v>
+      </c>
+      <c r="D115" s="5" t="s">
+        <v>394</v>
+      </c>
+      <c r="F115" s="5" t="s">
+        <v>344</v>
+      </c>
+      <c r="G115" s="6"/>
+      <c r="H115" s="6"/>
+      <c r="I115" s="6" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="116" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A116" s="5" t="s">
+        <v>471</v>
+      </c>
+      <c r="B116" s="5" t="s">
+        <v>472</v>
+      </c>
+      <c r="D116" s="5" t="s">
+        <v>473</v>
+      </c>
+      <c r="F116" s="5" t="s">
+        <v>230</v>
+      </c>
+      <c r="G116" s="6"/>
+      <c r="H116" s="6"/>
+      <c r="I116" s="4" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="117" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A117" s="5" t="s">
+        <v>474</v>
+      </c>
+      <c r="B117" s="5" t="s">
+        <v>474</v>
+      </c>
+      <c r="D117" s="5" t="s">
+        <v>473</v>
+      </c>
+      <c r="F117" s="5" t="s">
+        <v>230</v>
+      </c>
+      <c r="G117" s="6"/>
+      <c r="H117" s="6"/>
+      <c r="I117" s="4" t="s">
+        <v>153</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+</worksheet>
 </file>